--- a/biology/Botanique/Foliole/Foliole.xlsx
+++ b/biology/Botanique/Foliole/Foliole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La foliole (du latin foliolum, « petite feuille »), parfois appelé penne ou pinnule, est une pièce foliaire constituant une des parties du limbe d'une feuille composée. La foliole a la même structure interne que le limbe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une feuille composée peut être :
 unifoliolée, si la feuille compte une seule foliole (cas du Citronnier, de Dalbergia ecastaphyllum ou de Genista versicolor), souvent confondue avec de vraies feuilles simples
@@ -526,7 +540,7 @@
 qu'au point d'insertion du pétiole et de la tige, se trouve un bourgeon axillaire
 On peut rencontrer des cas de polymorphisme foliaire dans lesquels les folioles peuvent se subdiviser en foliolules, cas du févier ou du ponpon jon des Antilles (Acacia tortuosa) chez lesquels certaines feuilles sont doublement pennées, parfois incomplètement, certaines folioles étant elles-mêmes composées de plusieurs foliolules.
 On distingue ces folioles (pennées) des feuilles composées par le fait que à l'aisselle de la feuille se trouve un bourgeon axillaire et qu'il n'y en a pas à l'aisselle de la foliole.
-La taille des folioles ne permet pas de les distinguer des feuilles. Ainsi, chez Piscidia carthagenensis, le bois-enivrant des Antilles, les folioles peuvent être assez grandes (4-16 cm x 2-7 cm), alors que les feuilles de Dalbergia ecastaphyllum (liane à barrique) sont à peu près de même taille[1].
+La taille des folioles ne permet pas de les distinguer des feuilles. Ainsi, chez Piscidia carthagenensis, le bois-enivrant des Antilles, les folioles peuvent être assez grandes (4-16 cm x 2-7 cm), alors que les feuilles de Dalbergia ecastaphyllum (liane à barrique) sont à peu près de même taille.
 Chez certaines plantes, la foliole terminale est transformée en vrille, cas du petit pois.
 </t>
         </is>
